--- a/MPS/Document/AIOP(POC)_.xlsx
+++ b/MPS/Document/AIOP(POC)_.xlsx
@@ -715,6 +715,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -728,21 +743,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1163,10 +1163,10 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1175,40 +1175,40 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1217,42 +1217,42 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
@@ -1265,70 +1265,70 @@
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1341,8 +1341,8 @@
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1350,6 +1350,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
@@ -1360,14 +1368,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
